--- a/project_implementation/csvs/err.xlsx
+++ b/project_implementation/csvs/err.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mashk\MyFiles\Semester 8\FYP\code\project_implementation\csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{99F2A5E5-78A8-4B1B-8EA4-520080A1ED77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC03D32F-62F4-4F56-BEE4-D40F329CDF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="err" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -382,7 +395,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1225,11 +1238,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2022,7 +2035,7 @@
         <f>COUNT(B1:B97)</f>
         <v>97</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="J106" s="2" t="s">
         <v>116</v>
       </c>
       <c r="K106" s="3" t="s">
@@ -2033,17 +2046,17 @@
       <c r="N106" s="3"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J107" s="1"/>
-      <c r="K107" s="1" t="s">
+      <c r="J107" s="2"/>
+      <c r="K107" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="L107" s="1" t="s">
+      <c r="L107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M107" s="1" t="s">
+      <c r="M107" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N107" s="1" t="s">
+      <c r="N107" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2055,11 +2068,11 @@
         <f>COUNTIF(B1:B97,"&lt;=1")*100/B106</f>
         <v>2.0618556701030926</v>
       </c>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
@@ -2069,20 +2082,21 @@
         <f>COUNTIF(B1:B97,"&lt;=2")*100/B106</f>
         <v>5.1546391752577323</v>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="J109" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K109" s="2">
+      <c r="K109" s="1">
+        <f>ROUND(B108,2)</f>
         <v>2.06</v>
       </c>
-      <c r="L109" s="2">
-        <v>47.6</v>
-      </c>
-      <c r="M109" s="2">
-        <v>1</v>
-      </c>
-      <c r="N109" s="2">
-        <v>12.4</v>
+      <c r="L109" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="M109" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="N109" s="1">
+        <v>26.3</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
@@ -2093,20 +2107,21 @@
         <f>COUNTIF(B1:B97,"&lt;=4")*100/B106</f>
         <v>12.371134020618557</v>
       </c>
-      <c r="J110" s="2" t="s">
+      <c r="J110" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K110" s="2">
+      <c r="K110" s="1">
+        <f t="shared" ref="K110:K123" si="0">ROUND(B109,2)</f>
         <v>5.15</v>
       </c>
-      <c r="L110" s="2">
-        <v>69.3</v>
-      </c>
-      <c r="M110" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="N110" s="2">
-        <v>33.6</v>
+      <c r="L110" s="1">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="M110" s="1">
+        <v>30.9</v>
+      </c>
+      <c r="N110" s="1">
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
@@ -2117,20 +2132,21 @@
         <f>COUNTIF(B1:B97,"&lt;=6")*100/B106</f>
         <v>19.587628865979383</v>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="J111" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K111" s="2">
+      <c r="K111" s="1">
+        <f t="shared" si="0"/>
         <v>12.37</v>
       </c>
-      <c r="L111" s="2">
-        <v>74.5</v>
-      </c>
-      <c r="M111" s="2">
-        <v>7</v>
-      </c>
-      <c r="N111" s="2">
-        <v>48.7</v>
+      <c r="L111" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="M111" s="1">
+        <v>46</v>
+      </c>
+      <c r="N111" s="1">
+        <v>43.7</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
@@ -2141,20 +2157,21 @@
         <f>COUNTIF(B1:B97,"&lt;=8")*100/B106</f>
         <v>29.896907216494846</v>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="J112" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K112" s="2">
+      <c r="K112" s="1">
+        <f t="shared" si="0"/>
         <v>19.59</v>
       </c>
-      <c r="L112" s="2">
-        <v>77.3</v>
-      </c>
-      <c r="M112" s="2">
-        <v>9</v>
-      </c>
-      <c r="N112" s="2">
-        <v>53.7</v>
+      <c r="L112" s="1">
+        <v>87.2</v>
+      </c>
+      <c r="M112" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="N112" s="1">
+        <v>52.1</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
@@ -2165,15 +2182,16 @@
         <f>COUNTIF(B1:B97,"&lt;=10")*100/B106</f>
         <v>38.144329896907216</v>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="J113" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K113" s="2">
+      <c r="K113" s="1">
+        <f t="shared" si="0"/>
         <v>29.9</v>
       </c>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
@@ -2183,15 +2201,16 @@
         <f>COUNTIF(B1:B97,"&lt;=12")*100/B106</f>
         <v>45.360824742268044</v>
       </c>
-      <c r="J114" s="2" t="s">
+      <c r="J114" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K114" s="2">
+      <c r="K114" s="1">
+        <f t="shared" si="0"/>
         <v>38.14</v>
       </c>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
@@ -2201,15 +2220,16 @@
         <f>COUNTIF(B1:B97,"&lt;=15")*100/B106</f>
         <v>51.546391752577321</v>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="J115" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K115" s="2">
+      <c r="K115" s="1">
+        <f t="shared" si="0"/>
         <v>45.36</v>
       </c>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
@@ -2219,15 +2239,16 @@
         <f>COUNTIF(B1:B97,"&lt;=20")*100/B106</f>
         <v>54.639175257731956</v>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="J116" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K116" s="2">
+      <c r="K116" s="1">
+        <f t="shared" si="0"/>
         <v>51.55</v>
       </c>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
@@ -2237,15 +2258,16 @@
         <f>COUNTIF(B1:B97,"&lt;=25")*100/B106</f>
         <v>57.731958762886599</v>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="J117" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K117" s="2">
+      <c r="K117" s="1">
+        <f t="shared" si="0"/>
         <v>54.64</v>
       </c>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
@@ -2255,15 +2277,16 @@
         <f>COUNTIF(B1:B97,"&lt;=40")*100/B106</f>
         <v>70.103092783505161</v>
       </c>
-      <c r="J118" s="2" t="s">
+      <c r="J118" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K118" s="2">
+      <c r="K118" s="1">
+        <f t="shared" si="0"/>
         <v>57.73</v>
       </c>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
@@ -2273,15 +2296,16 @@
         <f>COUNTIF(B1:B97,"&lt;=50")*100/B106</f>
         <v>76.288659793814432</v>
       </c>
-      <c r="J119" s="2" t="s">
+      <c r="J119" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K119" s="2">
+      <c r="K119" s="1">
+        <f t="shared" si="0"/>
         <v>70.099999999999994</v>
       </c>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
@@ -2291,15 +2315,16 @@
         <f>COUNTIF(B1:B97,"&lt;=70")*100/B106</f>
         <v>84.536082474226802</v>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="J120" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K120" s="2">
+      <c r="K120" s="1">
+        <f t="shared" si="0"/>
         <v>76.290000000000006</v>
       </c>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
@@ -2309,15 +2334,16 @@
         <f>COUNTIF(B1:B97,"&lt;=90")*100/B106</f>
         <v>89.69072164948453</v>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="J121" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K121" s="2">
+      <c r="K121" s="1">
+        <f t="shared" si="0"/>
         <v>84.54</v>
       </c>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
@@ -2327,26 +2353,28 @@
         <f>COUNTIF(B1:B97,"&lt;=100")*100/B106</f>
         <v>92.783505154639172</v>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="J122" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K122" s="2">
+      <c r="K122" s="1">
+        <f t="shared" si="0"/>
         <v>89.69</v>
       </c>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J123" s="2" t="s">
+      <c r="J123" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K123" s="2">
+      <c r="K123" s="1">
+        <f t="shared" si="0"/>
         <v>92.78</v>
       </c>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
